--- a/data/JAN26-Most.xlsx
+++ b/data/JAN26-Most.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitHub\Water-Use-Assumptions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97306E10-AE1B-46E0-A8CF-B90F99A9F719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC1D8D-16A4-43B6-98D3-3B9A7F7DD27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53265" yWindow="2235" windowWidth="23550" windowHeight="15585" xr2:uid="{E48FCDF0-69A1-49E3-B50E-C81CB2062227}"/>
+    <workbookView xWindow="58890" yWindow="1845" windowWidth="20355" windowHeight="15765" xr2:uid="{E48FCDF0-69A1-49E3-B50E-C81CB2062227}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,9 @@
       <c r="D1" s="1">
         <v>46752</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1">
+        <v>47118</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -600,7 +602,9 @@
       <c r="D2" s="2">
         <v>4399855</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>4399855</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -615,7 +619,9 @@
       <c r="D3" s="2">
         <v>889774.99999688298</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>889774.99999688298</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -630,7 +636,9 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -645,7 +653,9 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -660,6 +670,9 @@
       <c r="D6" s="2">
         <v>145</v>
       </c>
+      <c r="E6" s="2">
+        <v>145</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -674,6 +687,9 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -688,6 +704,9 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -702,6 +721,9 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -716,6 +738,9 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -730,6 +755,9 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -744,6 +772,9 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -758,7 +789,9 @@
       <c r="D13" s="2">
         <v>2725195</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>2725195</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -773,7 +806,9 @@
       <c r="D14" s="2">
         <v>2258454.22221928</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>2258454.22221928</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -788,7 +823,9 @@
       <c r="D15" s="2">
         <v>978310.22222368896</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>978310.22222368896</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -803,7 +840,9 @@
       <c r="D16" s="2">
         <v>319999.99999983201</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>319999.99999983201</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -818,7 +857,9 @@
       <c r="D17" s="2">
         <v>192000</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>192000</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -833,7 +874,9 @@
       <c r="D18" s="2">
         <v>50000</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>50000</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -848,6 +891,9 @@
       <c r="D19">
         <v>0</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -862,7 +908,9 @@
       <c r="D20">
         <v>45259.222222191202</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20">
+        <v>45259.222222191202</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -877,7 +925,9 @@
       <c r="D21">
         <v>45259.222222191202</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21">
+        <v>45259.222222191202</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -892,7 +942,9 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -907,7 +959,9 @@
       <c r="D23" s="2">
         <v>50000.000000019398</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>50000.000000019398</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -922,7 +976,9 @@
       <c r="D24" s="2">
         <v>142000.00000020399</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>142000.00000020399</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -937,7 +993,9 @@
       <c r="D25" s="2">
         <v>74805</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>74805</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -952,6 +1010,9 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -966,7 +1027,9 @@
       <c r="D27" s="2">
         <v>198000</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>198000</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -981,7 +1044,9 @@
       <c r="D28" s="2">
         <v>277823.086419623</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>277823.086419623</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -996,7 +1061,9 @@
       <c r="D29" s="2">
         <v>268394.08641900303</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>268394.08641900303</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1011,7 +1078,9 @@
       <c r="D30" s="2">
         <v>12999.999999985601</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>12999.999999985601</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1026,7 +1095,9 @@
       <c r="D31">
         <v>9176.9135804270809</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31">
+        <v>9176.9135804270809</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1041,6 +1112,9 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1055,7 +1129,9 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1070,7 +1146,9 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1085,7 +1163,9 @@
       <c r="D35" s="2">
         <v>7999.9999999998599</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>7999.9999999998599</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1100,7 +1180,9 @@
       <c r="D36" s="2">
         <v>35000</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>35000</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1115,7 +1197,9 @@
       <c r="D37" s="2">
         <v>35000</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>35000</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1130,6 +1214,9 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1144,7 +1231,9 @@
       <c r="D39" s="2">
         <v>7999.9999999998599</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>7999.9999999998599</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1159,7 +1248,9 @@
       <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1174,7 +1265,9 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1189,7 +1282,9 @@
       <c r="D42" s="2">
         <v>599740.77777817298</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>599740.77777817298</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1204,7 +1299,9 @@
       <c r="D43" s="2">
         <v>1649999.99999724</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>1649999.99999724</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1219,7 +1316,9 @@
       <c r="D44" s="2">
         <v>450259.22222191101</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>450259.22222191101</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1234,7 +1333,9 @@
       <c r="D45" s="2">
         <v>1420000.0000020401</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>1420000.0000020401</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1249,7 +1350,9 @@
       <c r="D46" s="2">
         <v>50000.000000019398</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>50000.000000019398</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1264,7 +1367,9 @@
       <c r="D47" s="2">
         <v>29999.999999979202</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>29999.999999979202</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1279,8 +1384,11 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1293,8 +1401,11 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -1307,8 +1418,11 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1321,8 +1435,11 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1333,6 +1450,9 @@
         <v>0</v>
       </c>
       <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
     </row>
